--- a/src/summary/haesung/Chapter02.xlsx
+++ b/src/summary/haesung/Chapter02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pureboyz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCCBEF-0D0D-4BC5-8657-D239B20CE2AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E2816-FC49-4EE4-9DA4-37B7F36A6E14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDE17059-ECC8-4A2B-B6A4-C77DF8112154}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D216B905-7F3F-433D-BDBD-056B95D119D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter02" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>변수 (variable)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 두 변수의 값 교환하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 변경될 수 있는 단 하나의 값을 저장할 수 있는 메모리 공간.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 변수를 하나 더 선언하여 임시 저장소로 활용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 단 하나의 값을 저장할 수 있으므로, 새로운 값을 저장하면 기존의 값은 사라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,11 +81,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 두 변수의 값 교환하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 변수를 하나 더 선언하여 임시 저장소로 활용.</t>
+    <t xml:space="preserve"> 변수의 필수 명명규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 필수는 아니지만 권장하는 명명규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,75 +93,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 클래스 이름의 첫 글자는 항상 대문자로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 예약어를 사용해서는 안 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 여러 단어로 이루어진 이름은 단어의 첫 글자를 대문자로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 숫자로 시작해서는 안 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 상수의 이름은 모두 대문자로 한다. 여러 단어로 이루어진 경우 _ 로 구분한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 특수문자는 _ 와 $ 만을 허용한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 키워드(keyword) 또는 리져브드워드(reserved word)라고 하는데,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  프로그래밍언어의 구문에 사용되는 단어를 뜻한다.</t>
+    <t xml:space="preserve"> cf. 네이밍 문법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cf. 예약어란?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- goto와 const는 실제로 사용되지 않지만, 변수의 이름으로 사용할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 필수는 아니지만 권장하는 명명규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 클래스 이름의 첫 글자는 항상 대문자로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 여러 단어로 이루어진 이름은 단어의 첫 글자를 대문자로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 상수의 이름은 모두 대문자로 한다. 여러 단어로 이루어진 경우 _ 로 구분한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 변수의 필수 명명규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 각 단어의 첫 문자를 대문자로 표시하되, 이름의 첫 문자는 소문자로 표시.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> cf. 네이밍 문법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 각 단어의 첫 문자를 대문자로 표시.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이름의 첫 문자도 대문자로 표시.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 문자를 소문자로 표기하되, 각 단어의 사이를 _ 로 구분.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 파스칼 표기법 (PascalCase)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,10 +152,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 키워드(keyword) 또는 리져브드워드(reserved word)라고 하는데,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 단어의 첫 문자를 대문자로 표시하되, 이름의 첫 문자는 소문자로 표시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  프로그래밍언어의 구문에 사용되는 단어를 뜻한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- goto와 const는 실제로 사용되지 않지만, 변수의 이름으로 사용할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 파스칼 표기법 (PascalCase)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 단어의 첫 문자를 대문자로 표시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이름의 첫 문자도 대문자로 표시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3. 스네이크 표기법 (snake_case)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 모든 문자를 소문자로 표기하되, 각 단어의 사이를 _ 로 구분.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4. 헝가리안 표기법 (Hungarian notation)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,11 +204,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>멤버변수의 경우 m_ 를 붙임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">   boolean bRunning = true;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버변수의 경우 m_ 를 붙임.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -247,6 +247,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ascii Code 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 기본형과 참조형 두 가지로 나누어 진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,18 +271,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ascii Code 표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cf. 아스키코드를 확장시켜 전 세계의 문자를 담은 것이 유니코드.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 기본형(primitive type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 논리형 boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 특수문자 다루기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · boolean형 변수에는 true와 false중 하나를 저장할 수 있으며, 기본값은 false이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · 문자 앞에 \를 붙여주면 특수한 문자를 표현할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · boolean형 변수는 대답(yes/no), 스위치(on/off) 등의 논리구현에 주로 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · boolean형은 두 가지의 값만을 표현하면 되므로 1bit로도 충분하지만,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    자바에서 데이터를 다루는 최소단위가 byte이기 때문에, boolean의 크기는 1byte이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · 자바에서는 대소문자가 구별되기 때문에 소문자 false, true만 저장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 문자형 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · 눈으로 보기에는 문자가 저장되는 것처럼 보이지만, 실제로는 해당 문자의 유니코드 값(정수)이 저장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · 해당 문자의 유니코드 값이 알고싶다면 char 타입의 변수를 int 타입으로 형변환하면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · 문자를 유니코드 값으로 변환하는 것을 인코딩이라고 하고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · \t 는 tab, \n 은 new line, \b 는 backspace를 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · \b 에서 오류가 발생한 것처럼 보이는데, 이클립스에서의 문제이고, 실제로는 잘 반영이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정수형 - byte, short, int, long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 부호있는 정수의 오버플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 정수형의 기본 자료형은 int이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 부호있는 정수는 부호비트가 0에서 1로 바뀔 때 오버플로우가 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- byte나 short가 크기가 작아서 메모리를 절약할 수 있지만,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 부호비트가 0이면 양수, 1이면 음수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  연산 시에 범위를 넘어서 잘못된 결과를 얻기 쉬우므로 int를 사용하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  따라서 4비트 2진수 기준으로 0111이 최대값이고, 1000이 최소값이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 정수형 변수는 int 타입으로 하고, int의 범위를 넘어서는 수를 다뤄야할 때는 long을 사용하면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정수형의 오버플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 타입이 표현 할 수 있는 값의 범위를 넘어서는 것을 오버플로우라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 오버플로우가 발생했다고 에러가 발생하는 것이 아니라 아래와 같은 결과를 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  최대값 + 1 -&gt; 최소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4bit 2진수 기준 : 1111 + 1 -&gt; 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  최소값  - 1 -&gt; 최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4bit 2진수 기준 : 0000  - 1 -&gt; 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 실수형 - float, double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 실수형의 저장방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 실수형은 0을 표현할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 부호비트는 1bit이며 0이면 양수, 1이면 음수를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 정수형은 부호와 값 두 부분으로 표현하지만, 실수형은 부호, 지수, 가수 세 부분으로 표현하기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 정수형과 달리 '2의 보수법'을 사용하지 않기 때문에 부호비트만 바꾸면 양의 실수를 음의 실수로 바꿀 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  큰 범위의 값을 저장할 수 있지만, 오차가 발생할 수 있다는 단점이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지수 부분은 8bit의 저장공간을 갖고, 부호있는 정수이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- float 타입은 7자리, double 타입은 15자리까지 오차없이 저장할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  '- 127~128의 값이 저장되나, -127은, 128은 NaN, 양의 무한대, 음의 무한대와 같이 특별한 값의 표현을 위해 예약되어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 나머지 공간은 가수 부분이며, double이 float보다 공간이 약 2배이므로 float 보다 약 2배의 정밀도를 갖는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 상수와 리터럴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>String 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 상수는 변수와 마찬가지로 값을 저장할 수 있는 공간이지만, 한 번 값을 저장하면 변경할 수 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +467,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 상수의 정수형, 실수형의 값을 리터럴이라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 리터럴의 타입과 접미사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,23 +479,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- int 타입은 정수형의 기본 자료형이라서 접미사를 생략한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- long 타입은 접미사 l 또는 L 을 붙인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- float 타입은 접미사 f 또는 F 를 붙인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- long 타입은 접미사 l 또는 L 을 붙인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- double 타입은 접미사 d 또는 D 를 붙이지만, 실수형의 기본 자료형이라서 접미사 생략이 가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- int 타입은 정수형의 기본 자료형이라서 접미사를 생략한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- byte 와 short 타입은 int 타입의 리터럴을 사용한다.</t>
+    <t>- 16진수는 접미사가 아닌 접두사 0x 또는 0X 를 붙이고, 8진수는 접두사 0 을 붙인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -323,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 16진수는 접미사가 아닌 접두사 0x 또는 0X 를 붙이고, 8진수는 접두사 0 을 붙인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 리터럴의 타입은 변수의 타입과 일치시키는 것이 보통이지만,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,34 +511,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 상수의 정수형, 실수형의 값을 리터럴이라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 문자 리터럴과 문자열 리터럴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 작은 따옴표로 문자 하나를 감싼 것을 '문자리터럴' 이라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 두 문자 이상은 큰 따옴표로 감싸야 하며 '문자열 리터럴' 이라고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 작은 따옴표로 문자 하나를 감싼 것을 '문자리터럴' 이라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 문자열 리터럴은 "" 안에 아무런 문자도 넣지 않는 것을 허용하며, 이를 빈 문자열이라고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 문자 리터럴은 '' 안에 반드시 하나의 문자가 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 형식화된 출력 - printf()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +543,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 10진법과 2진법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 2진법은 0과 1로만 데이터를 표현하기 때문에 10진법에 비해 많은 자리수를 필요로 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,14 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 비트(bit)와 바이트(byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10진법과 2진법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 한 자리의 2진수를 비트라고 하며, 1 비트는 컴퓨터가 값을 저장할 수 있는 최소단위이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,211 +583,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 기본형(primitive type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 논리형 boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · boolean형 변수에는 true와 false중 하나를 저장할 수 있으며, 기본값은 false이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · boolean형 변수는 대답(yes/no), 스위치(on/off) 등의 논리구현에 주로 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · boolean형은 두 가지의 값만을 표현하면 되므로 1bit로도 충분하지만,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    자바에서 데이터를 다루는 최소단위가 byte이기 때문에, boolean의 크기는 1byte이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · 자바에서는 대소문자가 구별되기 때문에 소문자 false, true만 저장된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 문자형 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · char 차입의 변수는 단 하나의 문자만을 저장할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · 눈으로 보기에는 문자가 저장되는 것처럼 보이지만, 실제로는 해당 문자의 유니코드 값(정수)이 저장된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · 해당 문자의 유니코드 값이 알고싶다면 char 타입의 변수를 int 타입으로 형변환하면 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 특수문자 다루기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · 문자 앞에 \를 붙여주면 특수한 문자를 표현할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · \t 는 tab, \n 은 new line, \b 는 backspace를 표시한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · \b 에서 오류가 발생한 것처럼 보이는데, 이클립스에서의 문제이고, 실제로는 잘 반영이 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  · 문자를 유니코드 값으로 변환하는 것을 인코딩이라고 하고,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   유니코드 값을 문자로 변환하는 것을 디코딩이라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정수형 - byte, short, int, long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 정수형의 기본 자료형은 int이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- byte나 short가 크기가 작아서 메모리를 절약할 수 있지만,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  연산 시에 범위를 넘어서 잘못된 결과를 얻기 쉬우므로 int를 사용하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 정수형 변수는 int 타입으로 하고, int의 범위를 넘어서는 수를 다뤄야할 때는 long을 사용하면 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정수형의 오버플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 타입이 표현 할 수 있는 값의 범위를 넘어서는 것을 오버플로우라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 오버플로우가 발생했다고 에러가 발생하는 것이 아니라 아래와 같은 결과를 얻는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  최대값 + 1 -&gt; 최소값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  최소값  - 1 -&gt; 최대값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4bit 2진수 기준 : 1111 + 1 -&gt; 0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4bit 2진수 기준 : 0000  - 1 -&gt; 1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 부호있는 정수의 오버플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 부호있는 정수는 부호비트가 0에서 1로 바뀔 때 오버플로우가 발생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 부호비트가 0이면 양수, 1이면 음수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  따라서 4비트 2진수 기준으로 0111이 최대값이고, 1000이 최소값이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 실수형 - float, double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 실수형은 0을 표현할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 정수형은 부호와 값 두 부분으로 표현하지만, 실수형은 부호, 지수, 가수 세 부분으로 표현하기 때문에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  큰 범위의 값을 저장할 수 있지만, 오차가 발생할 수 있다는 단점이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- float 타입은 7자리, double 타입은 15자리까지 오차없이 저장할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 실수형의 저장방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 정수형과 달리 '2의 보수법'을 사용하지 않기 때문에 부호비트만 바꾸면 양의 실수를 음의 실수로 바꿀 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 부호비트는 1bit이며 0이면 양수, 1이면 음수를 의미한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 지수 부분은 8bit의 저장공간을 갖고, 부호있는 정수이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  '- 127~128의 값이 저장되나, -127은, 128은 NaN, 양의 무한대, 음의 무한대와 같이 특별한 값의 표현을 위해 예약되어있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 나머지 공간은 가수 부분이며, double이 float보다 공간이 약 2배이므로 float 보다 약 2배의 정밀도를 갖는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 형변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 정수형 간의 형변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 형변환이란, 변수 또는 상수의 타입을 다른 타입으로 변환하는 것이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 큰 타입에서 작은 타입으로의 변환을 하는 경우는 값 손실이 발생할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 기본형에서 boolean을 제외한 나머지 타입들은 서로 형변환이 가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 반대로 작은 타입에서 큰 타입으로의 변환은 값 손실이 발생하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 기본형과 참조형간의 형변환은 불가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 정수형 간의 형변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 큰 타입에서 작은 타입으로의 변환을 하는 경우는 값 손실이 발생할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 반대로 작은 타입에서 큰 타입으로의 변환은 값 손실이 발생하지 않는다.</t>
+    <t>- 큰 타입으로 변환할 때 빈공간은 양수인 경우 0, 음수인 경우 1으로 채워진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 서로 다은 타입의 변수 간의 연산은 형변환을 하는 것이 원칙이지만,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  값의 범위가 작은 타입에서 큰 타입으로의 형변환은 생략할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 형변환을 생략하면 컴파일러가 알아서 자동형변환을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  기존의 값을 최대한 보존할 수 있는 타입으로 자동 형변환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 큰 타입으로 변환할 때 빈공간은 양수인 경우 0, 음수인 경우 1으로 채워진다.</t>
+    <t xml:space="preserve"> 정수형과 실수형 간의 형변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,14 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- float 타입의 범위를 넘는 값을 float 타입으로 형변환 하는 경우는 +-무한대 또는 +-0을 결과로 얻는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정수형과 실수형 간의 형변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 실수형은 정수형보다 큰 저장범위를 갖기 때문에 정수형을 실수형으로 변환하는 것은 무리가 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,19 +659,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 서로 다은 타입의 변수 간의 연산은 형변환을 하는 것이 원칙이지만,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  값의 범위가 작은 타입에서 큰 타입으로의 형변환은 생략할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 형변환을 생략하면 컴파일러가 알아서 자동형변환을 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  기존의 값을 최대한 보존할 수 있는 타입으로 자동 형변환한다.</t>
+    <t>- 자바에서 이미 다른 용도로 사용하고 있는 이름들.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  · char 타입의 변수는 단 하나의 문자만을 저장할 수 있고, 기본값은 ' '(공백문자)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    유니코드 값을 문자로 변환하는 것을 디코딩이라고 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- byte 와 short 타입은 int 타입의 리터럴을 사용한다. (연산 시 자동으로 int 타입으로 변환된다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 문자 리터럴은 ' ' 안에 반드시 하나의 문자가 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 화면에서 입력받기 - Scanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- printf 는 지시자를 통해 변수의 값을 여러가지 형식으로 변환하여 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지시자는 값을 어떤 형식으로 출력할 것인지 지정해주는 역할을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 출력될 값이 차지할 공간을 숫자로 지정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지시자 '%x'와 '%o'에 '#'을 사용하면 접두사 '0x'와 '0'이 붙는다. (ex. %#x, %#o)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 비트(bit)와 바이트(byte), 워드(word)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- float 타입의 범위를 넘는 값을 float 타입으로 형변환 하는 경우는 무한대 또는 0.0을 결과로 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 참조형 변수는 모두 4byte의 크기를 가진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,14 +751,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -740,6 +760,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -855,38 +883,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,7 +911,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -915,6 +925,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,10 +966,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5F9008-EFA1-4F93-BDF2-7B929DDF42AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C699CC7E-FE33-459D-B065-8541EB96710B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,10 +1010,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D314BF-74FA-410E-9CF2-A7FD38E47655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0406711A-6533-4815-85F7-54C9559A9FC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,56 +1043,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>191435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A6FF95-615A-41FF-8712-0BD7693C573A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="9906000"/>
-          <a:ext cx="5419725" cy="2915585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1088,10 +1054,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0E0246-514A-44BC-9A52-7EF6B3AF1B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D871A-CE8D-412C-A706-5DB48E5DAB68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1066,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1162,10 +1128,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15" descr="아스키코드 이미지 검색결과">
+        <xdr:cNvPr id="6" name="그림 5" descr="아스키코드 이미지 검색결과">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF4D5CE-7E5E-46CE-B680-68B3D3AC0CF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8623EA-3190-4CDF-9631-8588E5E0D11C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1140,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1223,10 +1189,54 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01381D02-C695-4A44-AFD7-22B328524B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EDE1CD-D444-4804-9944-91DE17DE4CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="46158150"/>
+          <a:ext cx="6085714" cy="4485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275676</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>171140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A928031-72F7-4CFC-A501-AE20BA8EECDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,8 +1252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="23736300"/>
-          <a:ext cx="6085714" cy="4485714"/>
+          <a:off x="685800" y="54540150"/>
+          <a:ext cx="4390476" cy="2476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,21 +1266,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>275676</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>171140</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84857</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>66473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16">
+        <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A487CD-8BFB-4B24-98FA-C04A89AB6AD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C43BCDA-BAD7-4B45-8FCC-785A2FF326A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,51 +1296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="32118300"/>
-          <a:ext cx="4390476" cy="2476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>272</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84857</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>66473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41C737D-AEBE-4F1F-9C6A-D98370901BFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="34756725"/>
+          <a:off x="685800" y="57178575"/>
           <a:ext cx="6942857" cy="1619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1344,21 +1310,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19" descr="2진수 8진수 16진수 이미지 검색결과">
+        <xdr:cNvPr id="10" name="그림 9" descr="2진수 8진수 16진수 이미지 검색결과">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FA73AB-C2C5-4B4C-83AF-2DDC3400757C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8B15AD-52B2-47DD-B691-F9033E465EB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1333,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1381,7 +1347,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="41338500"/>
+          <a:off x="685800" y="63207900"/>
           <a:ext cx="2809875" cy="3724275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1405,21 +1371,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22" descr="2진수 8진수 16진수 이미지 검색결과">
+        <xdr:cNvPr id="11" name="그림 10" descr="2진수 8진수 16진수 이미지 검색결과">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C47B5B-1F6C-4E1F-8774-11141DDB86FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FFE9B4-7E51-4FEB-9735-EAF5C11EF4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1394,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1442,7 +1408,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3524250" y="41205150"/>
+          <a:off x="3524250" y="63207900"/>
           <a:ext cx="5286375" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1477,10 +1443,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6955D3-D58F-4BD3-BA40-2210DC9B40ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EBBA08-86B9-4F7F-9EB9-BB690D1D84E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,59 +1455,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="46234350"/>
+          <a:off x="6858000" y="24155400"/>
           <a:ext cx="1723810" cy="666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485457</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>95055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F9585E-714E-4AD6-9F5C-8DD749D23525}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="48329850"/>
-          <a:ext cx="2542857" cy="1561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,10 +1487,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25">
+        <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1928ACD5-1FC9-4C11-B70E-3E3151EB3A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E940AF4A-938B-4243-B976-61D530892A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,14 +1499,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="46443900"/>
+          <a:off x="8915400" y="24364950"/>
           <a:ext cx="4542857" cy="3552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1609,10 +1531,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18">
+        <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB7586F-2809-4C3C-992F-F3FCA2FA476C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8D703A-FE4F-44FD-86EE-7AA3A4E1BECA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1543,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1653,10 +1575,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
+        <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29ED2D68-099D-4A51-9044-49EBA1D29C52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71A5E2A-7768-4E57-8F85-41414F3610B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1587,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1686,21 +1608,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>589705</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>142150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
+        <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54B069D-55A3-47D7-BCF4-41F534A26634}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB90D415-79FD-482F-9349-2BBE1A2B342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1730,21 +1652,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342257</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>104055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
+        <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E735E0BA-1E2E-41D9-AA85-EF929A2DA364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068BB5B3-FA9A-46BA-AEAE-7B2E04EEFB56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1675,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1774,21 +1696,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>75419</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>189821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14">
+        <xdr:cNvPr id="19" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8DD379-4B7E-4808-983F-AA731E122D96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C091B532-8475-41D8-90C4-A1D17103B301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1719,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1818,21 +1740,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>75505</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>66248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="그림 21">
+        <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36DF2C90-5EE1-487E-A3D3-7C37744FF633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E90756C-922B-4C05-A5D1-35ED2DD5879C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1763,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1850,6 +1772,293 @@
         <a:xfrm>
           <a:off x="685800" y="69703950"/>
           <a:ext cx="5561905" cy="3419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209095</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B15571A-A6CE-445D-AC30-1B5D69E93F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="4038600"/>
+          <a:ext cx="3638095" cy="2228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>191435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8EA0DF-DEA9-4129-9759-18C9476FB1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10115550"/>
+          <a:ext cx="5419725" cy="2915585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590048</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9756F08C-87A8-4348-9CC6-C7A4A053BF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19335750"/>
+          <a:ext cx="4019048" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552210</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>171271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BA8F31-29FC-4C45-AE85-11BCAB3CF665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="28765500"/>
+          <a:ext cx="1923810" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514536</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42" descr="Java]printf() 정리">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A18CC-1756-4527-974A-F3B94DC9BB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8915400" y="54749700"/>
+          <a:ext cx="3257736" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>161512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F31DB8-6C6E-45D6-8858-4BDF933AEB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="56635650"/>
+          <a:ext cx="7485714" cy="3304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,8 +2366,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8026BF-5FA3-4F8C-8DAE-7E347F6FFC71}">
-  <dimension ref="B1:Y364"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345AE68-A991-4315-945F-A89FDBDDCB7D}">
+  <dimension ref="B1:Y367"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
@@ -2168,266 +2377,269 @@
   <sheetData>
     <row r="1" spans="2:25" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="6" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="C6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:25" ht="16.5" customHeight="1">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="19.5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="19.5">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:25">
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="2:25">
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25">
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="N35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="N41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="14"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="N43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="N35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="N41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="N43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:17">
       <c r="B45" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="2" t="s">
-        <v>19</v>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="N46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="N48" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="N47" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="N48" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="50" spans="14:17">
       <c r="N50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17">
+      <c r="N51" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="14:17">
-      <c r="N51" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="53" spans="14:17">
@@ -2436,7 +2648,7 @@
       </c>
     </row>
     <row r="54" spans="14:17">
-      <c r="N54" s="2" t="s">
+      <c r="N54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2450,696 +2662,733 @@
         <v>36</v>
       </c>
       <c r="Q56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="14:17">
       <c r="N57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="14:17">
-      <c r="N58" s="4" t="s">
+      <c r="N58" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="N70" s="10" t="s">
+      <c r="C70" s="14"/>
+      <c r="N70" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="14"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O70" s="10"/>
-    </row>
-    <row r="71" spans="2:15">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-    </row>
-    <row r="72" spans="2:15">
-      <c r="B72" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15">
-      <c r="B73" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15">
-      <c r="B75" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="2:15">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="2:15">
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15">
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="113" spans="2:14">
-      <c r="B113" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="B113" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="2:14">
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="2:14">
-      <c r="B115" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N115" s="9" t="s">
-        <v>97</v>
+      <c r="B115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="2:14">
       <c r="B116" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="N116" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="2:14">
       <c r="B117" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="2:14">
       <c r="B118" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="2:14">
       <c r="B119" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="2:14">
       <c r="B120" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="2:14">
-      <c r="B122" s="9" t="s">
-        <v>93</v>
+      <c r="B122" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="2:14">
       <c r="B123" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="2:14">
       <c r="B124" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="2:14">
       <c r="B125" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14">
-      <c r="B134" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14">
-      <c r="B135" t="s">
-        <v>103</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="B126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14">
+      <c r="B127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="12:14">
       <c r="L135" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="N135" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="12:14">
       <c r="N136" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="N149" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
+      <c r="B149" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="N149" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
     </row>
     <row r="150" spans="2:17">
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="N150" s="10"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
     </row>
     <row r="151" spans="2:17">
-      <c r="B151" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>117</v>
+      <c r="B151" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="2:17">
-      <c r="B152" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>118</v>
+      <c r="B152" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="2:17">
       <c r="B153" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="N153" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="2:17">
-      <c r="B154" s="2" t="s">
-        <v>108</v>
+      <c r="B154" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="2:17">
-      <c r="B156" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
+      <c r="B156" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="2:17">
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="2" t="s">
-        <v>110</v>
+      <c r="B158" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="2" t="s">
-        <v>111</v>
+      <c r="B159" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="2:17">
       <c r="B160" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E160" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="B161" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E161" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="16.5" customHeight="1"/>
     <row r="164" spans="2:5" ht="16.5" customHeight="1"/>
     <row r="185" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B185" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="8"/>
-      <c r="N185" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O185" s="10"/>
-      <c r="P185" s="10"/>
+      <c r="B185" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="2"/>
+      <c r="N185" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O185" s="14"/>
+      <c r="P185" s="14"/>
     </row>
     <row r="186" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="8"/>
-      <c r="N186" s="10"/>
-      <c r="O186" s="10"/>
-      <c r="P186" s="10"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="2"/>
+      <c r="N186" s="14"/>
+      <c r="O186" s="14"/>
+      <c r="P186" s="14"/>
     </row>
     <row r="187" spans="2:16">
-      <c r="B187" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N187" s="2" t="s">
-        <v>127</v>
+      <c r="B187" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="2:16">
-      <c r="B188" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N188" s="2" t="s">
-        <v>126</v>
+      <c r="B188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="2:16">
       <c r="B189" t="s">
+        <v>87</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16">
+      <c r="B190" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16">
+      <c r="N191" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B219" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C219" s="14"/>
+      <c r="D219" s="2"/>
+      <c r="N219" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O219" s="14"/>
+    </row>
+    <row r="220" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="2"/>
+      <c r="N220" s="14"/>
+      <c r="O220" s="14"/>
+    </row>
+    <row r="221" spans="2:15">
+      <c r="B221" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="2:15">
+      <c r="B222" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15">
+      <c r="B223" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15">
+      <c r="B224" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C236" s="14"/>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4">
+      <c r="B239" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16">
+      <c r="B241" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+    </row>
+    <row r="242" spans="2:16">
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+    </row>
+    <row r="243" spans="2:16">
+      <c r="B243" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16">
+      <c r="B244" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16">
+      <c r="B245" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16">
+      <c r="B246" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="254" spans="2:16" ht="16.5" customHeight="1">
+      <c r="B254" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
+      <c r="N254" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O254" s="15"/>
+      <c r="P254" s="15"/>
+    </row>
+    <row r="255" spans="2:16" ht="16.5" customHeight="1">
+      <c r="B255" s="15"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="N255" s="15"/>
+      <c r="O255" s="15"/>
+      <c r="P255" s="15"/>
+    </row>
+    <row r="256" spans="2:16">
+      <c r="B256" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14">
+      <c r="B257" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14">
+      <c r="B258" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14">
+      <c r="N259" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" ht="19.5" customHeight="1">
+      <c r="B289" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C289" s="14"/>
+    </row>
+    <row r="290" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+    </row>
+    <row r="291" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B291" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6">
+      <c r="B292" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B294" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C294" s="15"/>
+      <c r="D294" s="15"/>
+      <c r="E294" s="15"/>
+      <c r="F294" s="15"/>
+    </row>
+    <row r="295" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B295" s="15"/>
+      <c r="C295" s="15"/>
+      <c r="D295" s="15"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="15"/>
+    </row>
+    <row r="296" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B296" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6">
+      <c r="B297" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6">
+      <c r="B298" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6">
+      <c r="B299" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6">
+      <c r="B301" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="C301" s="14"/>
+    </row>
+    <row r="302" spans="2:6">
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="B303" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6">
+      <c r="B304" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="326" spans="2:16">
+      <c r="B326" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C326" s="14"/>
+      <c r="N326" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O326" s="14"/>
+      <c r="P326" s="14"/>
+    </row>
+    <row r="327" spans="2:16">
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="N327" s="14"/>
+      <c r="O327" s="14"/>
+      <c r="P327" s="14"/>
+    </row>
+    <row r="328" spans="2:16">
+      <c r="B328" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="190" spans="2:16">
-      <c r="B190" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N190" t="s">
+      <c r="N328" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="2:16">
-      <c r="N191" s="2" t="s">
+    <row r="329" spans="2:16">
+      <c r="B329" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="219" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B219" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="3"/>
-      <c r="N219" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O219" s="10"/>
-    </row>
-    <row r="220" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="3"/>
-      <c r="N220" s="10"/>
-      <c r="O220" s="10"/>
-    </row>
-    <row r="221" spans="2:15">
-      <c r="B221" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N221" s="2"/>
-    </row>
-    <row r="222" spans="2:15">
-      <c r="B222" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="223" spans="2:15">
-      <c r="B223" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="224" spans="2:15">
-      <c r="B224" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4">
-      <c r="B226" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-    </row>
-    <row r="227" spans="2:4">
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-    </row>
-    <row r="228" spans="2:4">
-      <c r="B228" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4">
-      <c r="B229" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4">
-      <c r="B230" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4">
-      <c r="B231" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4">
-      <c r="B232" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4">
-      <c r="B233" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4">
-      <c r="B234" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4">
-      <c r="B236" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C236" s="10"/>
-    </row>
-    <row r="237" spans="2:4">
-      <c r="B237" s="10"/>
-      <c r="C237" s="10"/>
-    </row>
-    <row r="238" spans="2:4">
-      <c r="B238" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4">
-      <c r="B239" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5">
-      <c r="B241" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-    </row>
-    <row r="242" spans="2:5">
-      <c r="B242" s="10"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
-    </row>
-    <row r="243" spans="2:5">
-      <c r="B243" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5">
-      <c r="B244" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5">
-      <c r="B245" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5">
-      <c r="B246" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5">
-      <c r="B255" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-    </row>
-    <row r="256" spans="2:5">
-      <c r="B256" s="10"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3" ht="19.5" customHeight="1">
-      <c r="B286" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C286" s="10"/>
-    </row>
-    <row r="287" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B287" s="10"/>
-      <c r="C287" s="10"/>
-    </row>
-    <row r="288" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B288" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="289" spans="2:4">
-      <c r="B289" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4" ht="19.5">
-      <c r="B291" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7"/>
-    </row>
-    <row r="292" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-    </row>
-    <row r="293" spans="2:4" ht="16.5" customHeight="1">
-      <c r="B293" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="294" spans="2:4">
-      <c r="B294" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="295" spans="2:4">
-      <c r="B295" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="296" spans="2:4">
-      <c r="B296" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="298" spans="2:4">
-      <c r="B298" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C298" s="10"/>
-    </row>
-    <row r="299" spans="2:4">
-      <c r="B299" s="10"/>
-      <c r="C299" s="10"/>
-    </row>
-    <row r="300" spans="2:4">
-      <c r="B300" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4">
-      <c r="B301" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="323" spans="2:16">
-      <c r="B323" s="10" t="s">
+      <c r="N329" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C323" s="10"/>
-      <c r="N323" s="10" t="s">
+    </row>
+    <row r="330" spans="2:16">
+      <c r="B330" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="331" spans="2:16">
+      <c r="B331" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="332" spans="2:16">
+      <c r="B332" t="s">
         <v>135</v>
       </c>
-      <c r="O323" s="10"/>
-      <c r="P323" s="10"/>
-    </row>
-    <row r="324" spans="2:16">
-      <c r="B324" s="10"/>
-      <c r="C324" s="10"/>
-      <c r="N324" s="10"/>
-      <c r="O324" s="10"/>
-      <c r="P324" s="10"/>
-    </row>
-    <row r="325" spans="2:16">
-      <c r="B325" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N325" s="2" t="s">
+    </row>
+    <row r="333" spans="2:16">
+      <c r="B333" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="326" spans="2:16">
-      <c r="B326" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N326" s="2" t="s">
+    <row r="334" spans="2:16">
+      <c r="B334" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="327" spans="2:16">
-      <c r="B327" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N327" s="2" t="s">
+    <row r="362" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B362" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="N362" s="14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="328" spans="2:16">
-      <c r="B328" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="329" spans="2:16">
-      <c r="B329" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="330" spans="2:16">
-      <c r="B330" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="331" spans="2:16">
-      <c r="B331" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="359" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B359" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C359" s="10"/>
-      <c r="D359" s="10"/>
-      <c r="N359" s="10" t="s">
+      <c r="O362" s="14"/>
+      <c r="P362" s="14"/>
+      <c r="Q362" s="14"/>
+    </row>
+    <row r="363" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="N363" s="14"/>
+      <c r="O363" s="14"/>
+      <c r="P363" s="14"/>
+      <c r="Q363" s="14"/>
+    </row>
+    <row r="364" spans="2:17">
+      <c r="B364" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="365" spans="2:17">
+      <c r="B365" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N365" t="s">
         <v>142</v>
       </c>
-      <c r="O359" s="10"/>
-      <c r="P359" s="10"/>
-      <c r="Q359" s="10"/>
-    </row>
-    <row r="360" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B360" s="10"/>
-      <c r="C360" s="10"/>
-      <c r="D360" s="10"/>
-      <c r="N360" s="10"/>
-      <c r="O360" s="10"/>
-      <c r="P360" s="10"/>
-      <c r="Q360" s="10"/>
-    </row>
-    <row r="361" spans="2:17">
-      <c r="B361" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N361" s="2" t="s">
+    </row>
+    <row r="366" spans="2:17">
+      <c r="N366" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="362" spans="2:17">
-      <c r="B362" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N362" t="s">
+    <row r="367" spans="2:17">
+      <c r="N367" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="363" spans="2:17">
-      <c r="N363" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="364" spans="2:17">
-      <c r="N364" t="s">
-        <v>146</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B156:D157"/>
-    <mergeCell ref="N149:Q150"/>
-    <mergeCell ref="B2:Y4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="B75:D76"/>
-    <mergeCell ref="N70:O71"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="N35:Q36"/>
+  <mergeCells count="31">
+    <mergeCell ref="B326:C327"/>
+    <mergeCell ref="N326:P327"/>
+    <mergeCell ref="B362:D363"/>
+    <mergeCell ref="N362:Q363"/>
+    <mergeCell ref="B226:D227"/>
+    <mergeCell ref="B236:C237"/>
+    <mergeCell ref="B241:E242"/>
+    <mergeCell ref="B289:C290"/>
+    <mergeCell ref="B301:C302"/>
+    <mergeCell ref="B254:E255"/>
+    <mergeCell ref="N254:P255"/>
+    <mergeCell ref="B294:F295"/>
+    <mergeCell ref="B219:C220"/>
+    <mergeCell ref="N219:O220"/>
     <mergeCell ref="N41:O42"/>
     <mergeCell ref="B42:C43"/>
     <mergeCell ref="B70:C71"/>
-    <mergeCell ref="N323:P324"/>
-    <mergeCell ref="B359:D360"/>
-    <mergeCell ref="N359:Q360"/>
-    <mergeCell ref="B298:C299"/>
+    <mergeCell ref="N70:O71"/>
+    <mergeCell ref="B76:D77"/>
     <mergeCell ref="B113:D114"/>
     <mergeCell ref="B149:E150"/>
-    <mergeCell ref="B241:E242"/>
-    <mergeCell ref="B219:C220"/>
-    <mergeCell ref="B286:C287"/>
-    <mergeCell ref="B255:D256"/>
-    <mergeCell ref="B226:D227"/>
-    <mergeCell ref="B236:C237"/>
+    <mergeCell ref="N149:Q150"/>
+    <mergeCell ref="B156:D157"/>
     <mergeCell ref="B185:D186"/>
     <mergeCell ref="N185:P186"/>
-    <mergeCell ref="B323:C324"/>
-    <mergeCell ref="N219:O220"/>
+    <mergeCell ref="B2:Y4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="N35:Q36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/summary/haesung/Chapter02.xlsx
+++ b/src/summary/haesung/Chapter02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E2816-FC49-4EE4-9DA4-37B7F36A6E14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ABB186-460A-43E6-BFAB-C85BAB61D646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D216B905-7F3F-433D-BDBD-056B95D119D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D216B905-7F3F-433D-BDBD-056B95D119D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter02" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>변수 (variable)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,6 +708,30 @@
   </si>
   <si>
     <t>- 참조형 변수는 모두 4byte의 크기를 가진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2의 보수법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 어떤 수의 'n의 보수'는 더했을 때 n이 되는 수를 말한다. (ex. 7의 10의 보수는 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 2의 보수 관계에 있는 두 2진수를 더하면 0이된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2진수에서 2는 자리올림이 발생하여 10이 되는데 1은 담을 수 없는 비트의 값이라서 사라지기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 2의 보수 = 1의 보수 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 음수를 2진수로 표현하려면, 절대값을 2진수로 변환한뒤 2의보수값을 구하면 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,6 +923,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,12 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2377,102 +2401,102 @@
   <sheetData>
     <row r="1" spans="2:25" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="2:25" ht="17.25" thickBot="1">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="15"/>
     </row>
     <row r="6" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="C6" s="5"/>
+      <c r="N6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="2:25">
       <c r="B8" s="1" t="s">
@@ -2497,14 +2521,14 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:25">
       <c r="B14" s="1" t="s">
@@ -2527,26 +2551,26 @@
       </c>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="N35" s="14" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="N35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="1" t="s">
@@ -2578,22 +2602,22 @@
       </c>
     </row>
     <row r="41" spans="2:17">
-      <c r="N41" s="14" t="s">
+      <c r="N41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="14"/>
+      <c r="O41" s="5"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
+      <c r="C42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="N43" s="1" t="s">
         <v>23</v>
       </c>
@@ -2679,20 +2703,20 @@
       </c>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="N70" s="14" t="s">
+      <c r="C70" s="5"/>
+      <c r="N70" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O70" s="14"/>
+      <c r="O70" s="5"/>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
     </row>
     <row r="72" spans="2:15">
       <c r="B72" s="1" t="s">
@@ -2710,16 +2734,16 @@
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="1" t="s">
@@ -2737,16 +2761,16 @@
       </c>
     </row>
     <row r="113" spans="2:14">
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="2:14">
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
     </row>
     <row r="115" spans="2:14">
       <c r="B115" s="4" t="s">
@@ -2828,28 +2852,28 @@
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="N149" s="14" t="s">
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="N149" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O149" s="14"/>
-      <c r="P149" s="14"/>
-      <c r="Q149" s="14"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
     </row>
     <row r="150" spans="2:17">
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="N150" s="14"/>
-      <c r="O150" s="14"/>
-      <c r="P150" s="14"/>
-      <c r="Q150" s="14"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
     </row>
     <row r="151" spans="2:17">
       <c r="B151" s="1" t="s">
@@ -2881,16 +2905,16 @@
       </c>
     </row>
     <row r="156" spans="2:17">
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
     </row>
     <row r="157" spans="2:17">
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
     </row>
     <row r="158" spans="2:17">
       <c r="B158" s="1" t="s">
@@ -2921,26 +2945,26 @@
     <row r="163" spans="2:5" ht="16.5" customHeight="1"/>
     <row r="164" spans="2:5" ht="16.5" customHeight="1"/>
     <row r="185" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="2"/>
-      <c r="N185" s="14" t="s">
+      <c r="N185" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O185" s="14"/>
-      <c r="P185" s="14"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
     </row>
     <row r="186" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="2"/>
-      <c r="N186" s="14"/>
-      <c r="O186" s="14"/>
-      <c r="P186" s="14"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
     </row>
     <row r="187" spans="2:16">
       <c r="B187" s="1" t="s">
@@ -2980,22 +3004,22 @@
       </c>
     </row>
     <row r="219" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C219" s="14"/>
+      <c r="C219" s="5"/>
       <c r="D219" s="2"/>
-      <c r="N219" s="14" t="s">
+      <c r="N219" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O219" s="14"/>
+      <c r="O219" s="5"/>
     </row>
     <row r="220" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B220" s="14"/>
-      <c r="C220" s="14"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
       <c r="D220" s="2"/>
-      <c r="N220" s="14"/>
-      <c r="O220" s="14"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
     </row>
     <row r="221" spans="2:15">
       <c r="B221" s="1" t="s">
@@ -3019,16 +3043,16 @@
       </c>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="14"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
     </row>
     <row r="228" spans="2:4">
       <c r="B228" s="1" t="s">
@@ -3066,14 +3090,14 @@
       </c>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C236" s="14"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="14"/>
-      <c r="C237" s="14"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="1" t="s">
@@ -3086,18 +3110,18 @@
       </c>
     </row>
     <row r="241" spans="2:16">
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
     </row>
     <row r="242" spans="2:16">
-      <c r="B242" s="14"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
     </row>
     <row r="243" spans="2:16">
       <c r="B243" s="1" t="s">
@@ -3120,26 +3144,26 @@
       </c>
     </row>
     <row r="254" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C254" s="15"/>
-      <c r="D254" s="15"/>
-      <c r="E254" s="15"/>
-      <c r="N254" s="15" t="s">
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="N254" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O254" s="15"/>
-      <c r="P254" s="15"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
     </row>
     <row r="255" spans="2:16" ht="16.5" customHeight="1">
-      <c r="B255" s="15"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
-      <c r="E255" s="15"/>
-      <c r="N255" s="15"/>
-      <c r="O255" s="15"/>
-      <c r="P255" s="15"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
     </row>
     <row r="256" spans="2:16">
       <c r="B256" s="1" t="s">
@@ -3170,99 +3194,122 @@
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="2:6" ht="19.5" customHeight="1">
-      <c r="B289" s="14" t="s">
+    <row r="289" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B289" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C289" s="14"/>
-    </row>
-    <row r="290" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B290" s="14"/>
-      <c r="C290" s="14"/>
-    </row>
-    <row r="291" spans="2:6" ht="16.5" customHeight="1">
+      <c r="C289" s="5"/>
+      <c r="N289" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O289" s="6"/>
+    </row>
+    <row r="290" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+    </row>
+    <row r="291" spans="2:15" ht="16.5" customHeight="1">
       <c r="B291" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="292" spans="2:6">
+      <c r="N291" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="292" spans="2:15">
       <c r="B292" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="294" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B294" s="15" t="s">
+      <c r="N292" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="293" spans="2:15">
+      <c r="N293" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="294" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B294" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C294" s="15"/>
-      <c r="D294" s="15"/>
-      <c r="E294" s="15"/>
-      <c r="F294" s="15"/>
-    </row>
-    <row r="295" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B295" s="15"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="15"/>
-      <c r="E295" s="15"/>
-      <c r="F295" s="15"/>
-    </row>
-    <row r="296" spans="2:6" ht="16.5" customHeight="1">
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="N294" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="295" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="N295" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="2:15" ht="16.5" customHeight="1">
       <c r="B296" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="297" spans="2:6">
+    <row r="297" spans="2:15">
       <c r="B297" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="298" spans="2:6">
+    <row r="298" spans="2:15">
       <c r="B298" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="2:6">
+    <row r="299" spans="2:15">
       <c r="B299" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="301" spans="2:6">
-      <c r="B301" s="14" t="s">
+    <row r="301" spans="2:15">
+      <c r="B301" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C301" s="14"/>
-    </row>
-    <row r="302" spans="2:6">
-      <c r="B302" s="14"/>
-      <c r="C302" s="14"/>
-    </row>
-    <row r="303" spans="2:6">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" spans="2:15">
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" spans="2:15">
       <c r="B303" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="304" spans="2:6">
+    <row r="304" spans="2:15">
       <c r="B304" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="326" spans="2:16">
-      <c r="B326" s="14" t="s">
+      <c r="B326" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C326" s="14"/>
-      <c r="N326" s="14" t="s">
+      <c r="C326" s="5"/>
+      <c r="N326" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O326" s="14"/>
-      <c r="P326" s="14"/>
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
     </row>
     <row r="327" spans="2:16">
-      <c r="B327" s="14"/>
-      <c r="C327" s="14"/>
-      <c r="N327" s="14"/>
-      <c r="O327" s="14"/>
-      <c r="P327" s="14"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="N327" s="5"/>
+      <c r="O327" s="5"/>
+      <c r="P327" s="5"/>
     </row>
     <row r="328" spans="2:16">
       <c r="B328" s="1" t="s">
@@ -3309,26 +3356,26 @@
       </c>
     </row>
     <row r="362" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C362" s="14"/>
-      <c r="D362" s="14"/>
-      <c r="N362" s="14" t="s">
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="N362" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O362" s="14"/>
-      <c r="P362" s="14"/>
-      <c r="Q362" s="14"/>
+      <c r="O362" s="5"/>
+      <c r="P362" s="5"/>
+      <c r="Q362" s="5"/>
     </row>
     <row r="363" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B363" s="14"/>
-      <c r="C363" s="14"/>
-      <c r="D363" s="14"/>
-      <c r="N363" s="14"/>
-      <c r="O363" s="14"/>
-      <c r="P363" s="14"/>
-      <c r="Q363" s="14"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="N363" s="5"/>
+      <c r="O363" s="5"/>
+      <c r="P363" s="5"/>
+      <c r="Q363" s="5"/>
     </row>
     <row r="364" spans="2:17">
       <c r="B364" s="1" t="s">
@@ -3357,19 +3404,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B326:C327"/>
-    <mergeCell ref="N326:P327"/>
-    <mergeCell ref="B362:D363"/>
-    <mergeCell ref="N362:Q363"/>
-    <mergeCell ref="B226:D227"/>
-    <mergeCell ref="B236:C237"/>
-    <mergeCell ref="B241:E242"/>
-    <mergeCell ref="B289:C290"/>
-    <mergeCell ref="B301:C302"/>
-    <mergeCell ref="B254:E255"/>
-    <mergeCell ref="N254:P255"/>
-    <mergeCell ref="B294:F295"/>
+  <mergeCells count="32">
+    <mergeCell ref="B2:Y4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="N35:Q36"/>
     <mergeCell ref="B219:C220"/>
     <mergeCell ref="N219:O220"/>
     <mergeCell ref="N41:O42"/>
@@ -3383,12 +3424,19 @@
     <mergeCell ref="B156:D157"/>
     <mergeCell ref="B185:D186"/>
     <mergeCell ref="N185:P186"/>
-    <mergeCell ref="B2:Y4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="N35:Q36"/>
+    <mergeCell ref="B326:C327"/>
+    <mergeCell ref="N326:P327"/>
+    <mergeCell ref="B362:D363"/>
+    <mergeCell ref="N362:Q363"/>
+    <mergeCell ref="B226:D227"/>
+    <mergeCell ref="B236:C237"/>
+    <mergeCell ref="B241:E242"/>
+    <mergeCell ref="B289:C290"/>
+    <mergeCell ref="B301:C302"/>
+    <mergeCell ref="B254:E255"/>
+    <mergeCell ref="N254:P255"/>
+    <mergeCell ref="B294:F295"/>
+    <mergeCell ref="N289:O290"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
